--- a/TE Fins mUTM.xlsx
+++ b/TE Fins mUTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire Marquiz\Downloads\Thesis - Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE634D4-4D63-4972-A57F-C4321D6D51CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C35A2A-287A-4B49-B12C-4D7058237AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="15" activeTab="29" xr2:uid="{281D817F-AF04-4010-AE74-FCD0FE0670FB}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2154,7 +2154,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3709,7 +3709,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5264,7 +5264,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6819,7 +6819,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8374,7 +8374,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9929,7 +9929,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11484,7 +11484,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13039,7 +13039,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14594,7 +14594,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16149,7 +16149,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17704,7 +17704,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19259,7 +19259,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20814,7 +20814,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22369,7 +22369,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23924,7 +23924,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25479,7 +25479,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27034,7 +27034,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28589,7 +28589,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30144,7 +30144,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31699,7 +31699,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33254,7 +33254,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34809,7 +34809,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36364,7 +36364,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37919,7 +37919,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39474,7 +39474,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41029,7 +41029,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42584,7 +42584,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44139,7 +44139,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F77"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45694,7 +45694,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
